--- a/data/trans_dic/CoPsoQ_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/CoPsoQ_R2-Dificultad-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.5794742506560425</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.5254758709494709</v>
+        <v>0.5254758709494708</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.5822374998072583</v>
@@ -655,7 +655,7 @@
         <v>0.5599598887896792</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.558424379872436</v>
+        <v>0.5584243798724359</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.5866897066213076</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5235586222715195</v>
+        <v>0.5312549601780517</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5174976457120024</v>
+        <v>0.5188504498553379</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2955917678761443</v>
+        <v>0.3091054282050998</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5135547240537797</v>
+        <v>0.5125138806211721</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4960546968103746</v>
+        <v>0.4935864492800899</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3943085185198518</v>
+        <v>0.4106924550952293</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5434226869919089</v>
+        <v>0.5392540740476492</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5271796063142082</v>
+        <v>0.523232933642154</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4055016134879528</v>
+        <v>0.4033919638693844</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6461283499423949</v>
+        <v>0.6466479761298559</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6381592061001703</v>
+        <v>0.6399725138602537</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7258997965020584</v>
+        <v>0.7429472792315315</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6515599628264578</v>
+        <v>0.6498993281674763</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6175322122272449</v>
+        <v>0.6193039836041992</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6969522205368293</v>
+        <v>0.7192444498740012</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6346198658264567</v>
+        <v>0.6328487890181589</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6111043562233947</v>
+        <v>0.6118329648439734</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6650873635830915</v>
+        <v>0.6601766485295484</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.6015718763967389</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5058429301526673</v>
+        <v>0.5058429301526672</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.551128839425563</v>
@@ -764,7 +764,7 @@
         <v>0.5423187507657135</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.5883646460687365</v>
+        <v>0.5883646460687364</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.5706649677410518</v>
@@ -773,7 +773,7 @@
         <v>0.5773465748925878</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.5427725189014034</v>
+        <v>0.5427725189014033</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5295703397145104</v>
+        <v>0.531060969616446</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5486237257044161</v>
+        <v>0.5522330237480667</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3942585705300621</v>
+        <v>0.3902420685080162</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.48286686420585</v>
+        <v>0.4888509881472333</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.482168766927249</v>
+        <v>0.4724625049554939</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4986530575621194</v>
+        <v>0.495945463737372</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5249635349742547</v>
+        <v>0.5290973559961371</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5404344458084793</v>
+        <v>0.5397068203368798</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.469380763985329</v>
+        <v>0.4723067785304218</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6329899405555918</v>
+        <v>0.6361770971392424</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6475206561549943</v>
+        <v>0.6504484137482816</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6092174560275375</v>
+        <v>0.6041340137755975</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6227599085795885</v>
+        <v>0.6214143320804785</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6048684549583166</v>
+        <v>0.596433632115475</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.675937296505137</v>
+        <v>0.6800080306479636</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6102161065726095</v>
+        <v>0.6091086078423544</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6165804940834079</v>
+        <v>0.6167658991929937</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6144440500274835</v>
+        <v>0.6217322593022975</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.6206955968748525</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.4842093259095247</v>
+        <v>0.4842093259095246</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.5719040859508309</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5499497822221936</v>
+        <v>0.5523388824720865</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4908712911535744</v>
+        <v>0.4830340554761119</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.321775967983192</v>
+        <v>0.313402152190666</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4589403418619848</v>
+        <v>0.4675893712560484</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5674956235186756</v>
+        <v>0.5611896160075887</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4071632196572275</v>
+        <v>0.4071317079019289</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5333167948577886</v>
+        <v>0.5313505018103121</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5320858562686934</v>
+        <v>0.5320411550095788</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3837187715017235</v>
+        <v>0.3843166415676051</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6467773418961138</v>
+        <v>0.6480827176088941</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5836549433281087</v>
+        <v>0.5822860296351066</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5200279885084249</v>
+        <v>0.5246250558986226</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5873029158809502</v>
+        <v>0.5853297390374467</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6742387550533219</v>
+        <v>0.675021270908398</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5754839574232292</v>
+        <v>0.5724404430089246</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6078558752990616</v>
+        <v>0.6078582375120388</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6053313971778858</v>
+        <v>0.6077470220834873</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5220922354185831</v>
+        <v>0.5222850559182693</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.4491606733299904</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.3188668376458099</v>
+        <v>0.3188668376458098</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.5342227360662746</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4920354148062015</v>
+        <v>0.4907230703592865</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3972459266284603</v>
+        <v>0.4034330909455504</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2368910175688199</v>
+        <v>0.2307283380895418</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4243520348939799</v>
+        <v>0.4279529910293175</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3756253272882161</v>
+        <v>0.374114792362146</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2458474612190147</v>
+        <v>0.2479980302062406</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4831067952038086</v>
+        <v>0.4848007373646382</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4113831132810508</v>
+        <v>0.4120497485478686</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2546544276753622</v>
+        <v>0.254885695005196</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6148261466533339</v>
+        <v>0.6136088271950483</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5196138046317708</v>
+        <v>0.5304683824160525</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3869828881018728</v>
+        <v>0.3864755688815143</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5862806381393768</v>
+        <v>0.5891211697126427</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5235988568033675</v>
+        <v>0.5263668493003497</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3963574469187517</v>
+        <v>0.3977927123115328</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5827694560155777</v>
+        <v>0.5862132893762778</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5084958963289561</v>
+        <v>0.5051397835506853</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3644583099673339</v>
+        <v>0.3644433378606045</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.556680974943164</v>
+        <v>0.5550609879770396</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5214468667735842</v>
+        <v>0.5226445494930891</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.349342928584767</v>
+        <v>0.3465645850014314</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5062749526936497</v>
+        <v>0.5064098242876337</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5187002024252619</v>
+        <v>0.5220517387985596</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4162136000208582</v>
+        <v>0.4177425253201936</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5453483134890535</v>
+        <v>0.5467666326652948</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5302612943408329</v>
+        <v>0.5281775044589333</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3907675473408239</v>
+        <v>0.3904373303794523</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6130342564783781</v>
+        <v>0.6106473861902959</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5791929021053798</v>
+        <v>0.5764047029543642</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4514953517356007</v>
+        <v>0.4509189416195176</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5744427376751577</v>
+        <v>0.574270626765213</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5826716513363942</v>
+        <v>0.5825129860431842</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5067521725257589</v>
+        <v>0.5092904891420565</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.586255810299666</v>
+        <v>0.5881217781328073</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5709862575788968</v>
+        <v>0.5704625987157159</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4620039205293465</v>
+        <v>0.4602546191381057</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>143557</v>
+        <v>145667</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>151926</v>
+        <v>152323</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10869</v>
+        <v>11366</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>112094</v>
+        <v>111867</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>137522</v>
+        <v>136837</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15277</v>
+        <v>15911</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>267617</v>
+        <v>265564</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>300919</v>
+        <v>298666</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>30621</v>
+        <v>30461</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>177165</v>
+        <v>177308</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>187350</v>
+        <v>187882</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26691</v>
+        <v>27318</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>142217</v>
+        <v>141854</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>171199</v>
+        <v>171690</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>27002</v>
+        <v>27866</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>312529</v>
+        <v>311657</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>348824</v>
+        <v>349240</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>50223</v>
+        <v>49852</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>198146</v>
+        <v>198704</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>214223</v>
+        <v>215633</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>46066</v>
+        <v>45597</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>121702</v>
+        <v>123210</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>130211</v>
+        <v>127590</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>47194</v>
+        <v>46937</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>328734</v>
+        <v>331323</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>356972</v>
+        <v>356491</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>99266</v>
+        <v>99885</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>236842</v>
+        <v>238035</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>252840</v>
+        <v>253983</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>71182</v>
+        <v>70588</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>156960</v>
+        <v>156621</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>163347</v>
+        <v>161069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>63972</v>
+        <v>64357</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>382120</v>
+        <v>381426</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>407268</v>
+        <v>407391</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>129944</v>
+        <v>131486</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>247212</v>
+        <v>248286</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>223930</v>
+        <v>220354</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>37752</v>
+        <v>36770</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>126365</v>
+        <v>128746</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>164934</v>
+        <v>163101</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>48823</v>
+        <v>48820</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>386578</v>
+        <v>385153</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>397374</v>
+        <v>397341</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>91032</v>
+        <v>91174</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>290737</v>
+        <v>291324</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>266256</v>
+        <v>265632</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>61012</v>
+        <v>61552</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>161708</v>
+        <v>161165</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>195957</v>
+        <v>196185</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>69007</v>
+        <v>68642</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>440609</v>
+        <v>440610</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>452076</v>
+        <v>453880</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>123859</v>
+        <v>123905</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>141560</v>
+        <v>141182</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>109302</v>
+        <v>111004</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>47512</v>
+        <v>46276</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>75679</v>
+        <v>76321</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>72895</v>
+        <v>72602</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>31547</v>
+        <v>31823</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>225149</v>
+        <v>225938</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>193026</v>
+        <v>193339</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>83752</v>
+        <v>83828</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>176887</v>
+        <v>176537</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>142971</v>
+        <v>145958</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>77615</v>
+        <v>77513</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>104557</v>
+        <v>105064</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>101611</v>
+        <v>102148</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>50861</v>
+        <v>51045</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>271596</v>
+        <v>273201</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>238592</v>
+        <v>237018</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>119865</v>
+        <v>119860</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>771325</v>
+        <v>769081</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>738051</v>
+        <v>739746</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>164716</v>
+        <v>163406</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>467794</v>
+        <v>467919</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>535289</v>
+        <v>538748</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>158834</v>
+        <v>159418</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1259521</v>
+        <v>1262796</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1297747</v>
+        <v>1292647</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>333371</v>
+        <v>333089</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>849407</v>
+        <v>846100</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>819784</v>
+        <v>815837</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>212881</v>
+        <v>212609</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>530780</v>
+        <v>530621</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>601307</v>
+        <v>601143</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>193385</v>
+        <v>194354</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1353999</v>
+        <v>1358309</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1397416</v>
+        <v>1396134</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>394144</v>
+        <v>392652</v>
       </c>
     </row>
     <row r="24">
